--- a/output/fit_clients/fit_round_154.xlsx
+++ b/output/fit_clients/fit_round_154.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1518213008.090722</v>
+        <v>2498044484.718495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07571781019475063</v>
+        <v>0.109036826664189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04115149395119251</v>
+        <v>0.04542862632234483</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>759106434.8993669</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1605401782.435439</v>
+        <v>1974862712.629627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1526745423183896</v>
+        <v>0.1500808989559752</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04424614234843073</v>
+        <v>0.03416279475181228</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>802700870.1210214</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4866097399.137904</v>
+        <v>4245453320.278353</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1175792450631574</v>
+        <v>0.1514533980652762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0352700248544081</v>
+        <v>0.03270276435194615</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2433048775.064493</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3367328854.64503</v>
+        <v>4247448334.84884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08623137219367813</v>
+        <v>0.09336275466374208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03785935430713176</v>
+        <v>0.04432970844063046</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>64</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1683664472.842059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1774148836.725542</v>
+        <v>2004595343.617052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.102817909826842</v>
+        <v>0.09267576479863249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05118451171229785</v>
+        <v>0.04310586790227855</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>887074472.3547385</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2885881541.626095</v>
+        <v>1931394712.715764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08295555689194353</v>
+        <v>0.06661222199977791</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03595302288640773</v>
+        <v>0.03093083766992248</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1442940746.625643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2815777289.189594</v>
+        <v>3500291931.007742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2057763129175061</v>
+        <v>0.1823703941105032</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03139527515981682</v>
+        <v>0.02095627364130197</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1407888683.241232</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1849203001.111701</v>
+        <v>1475881539.084541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1269369453650737</v>
+        <v>0.1573865380139386</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03142105015450625</v>
+        <v>0.03528002796390069</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>924601548.0607048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3785890210.884414</v>
+        <v>5104481911.17538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2161548718991824</v>
+        <v>0.1936800437086645</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04668424691225942</v>
+        <v>0.04601696811767939</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1892945110.731831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3259414866.297421</v>
+        <v>2702491357.20829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1823853033099843</v>
+        <v>0.1417404321366346</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03340179945559172</v>
+        <v>0.04148844499901053</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1629707394.185624</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2791395940.319619</v>
+        <v>3291890134.790599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1614809829011164</v>
+        <v>0.1832611493686547</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05185762032849485</v>
+        <v>0.04020306598629064</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>53</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1395697969.046193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4818295188.708362</v>
+        <v>5294600879.683119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08749900406869601</v>
+        <v>0.07385023924409156</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02147501079229466</v>
+        <v>0.03143089021907468</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2409147607.68644</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2687723080.730932</v>
+        <v>3529524426.37328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1550620817240337</v>
+        <v>0.1534081073401889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03547212197821978</v>
+        <v>0.03107770347696467</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>49</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1343861597.363396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1736028580.991872</v>
+        <v>1112090954.306589</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07266884984186539</v>
+        <v>0.09649030270340973</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04125026000078346</v>
+        <v>0.03704130315395806</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>868014429.4730732</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1792848987.306814</v>
+        <v>2695824381.873067</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0765440323686222</v>
+        <v>0.08485458333287106</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04176580713086289</v>
+        <v>0.03332889216431506</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>896424587.6213677</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5193848808.574065</v>
+        <v>4362667478.362155</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1344873446311358</v>
+        <v>0.17098076716623</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04400282318739755</v>
+        <v>0.03859355525911231</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2596924379.850606</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3706850951.208262</v>
+        <v>4013525871.232233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483194075332011</v>
+        <v>0.1186083158391241</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02130636914302111</v>
+        <v>0.02946734024088946</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1853425454.613626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1327224948.620657</v>
+        <v>918235457.9424365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1786562410491402</v>
+        <v>0.1761299698992568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02597484679642893</v>
+        <v>0.01800568887095657</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>663612583.1463521</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1924176475.387107</v>
+        <v>1946515017.07031</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1511165614660308</v>
+        <v>0.1310637380150073</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03089720346912405</v>
+        <v>0.02647034172094339</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>962088272.0823375</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2183187926.161407</v>
+        <v>2627014126.337593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06329328713819811</v>
+        <v>0.07680386862468033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04076014013316524</v>
+        <v>0.0444854157977486</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1091593981.448985</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3260450391.212133</v>
+        <v>2800357004.075199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.092086048742895</v>
+        <v>0.1367422447313677</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04757536242009727</v>
+        <v>0.04064472235083442</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1630225241.50648</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1353945022.404109</v>
+        <v>1291378799.469642</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1176152852528601</v>
+        <v>0.1454658605742477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05441234217659497</v>
+        <v>0.03485973766272358</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>676972521.7110592</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3592610502.449136</v>
+        <v>3618734913.93398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1393072337993058</v>
+        <v>0.1337704931947168</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03223803120205503</v>
+        <v>0.03094755416493256</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>45</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1796305246.572123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>971886584.0126325</v>
+        <v>1077685256.6503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08777891074391947</v>
+        <v>0.09065498307911381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0266517051723023</v>
+        <v>0.0285911012653687</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>485943362.4230175</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1244067553.398271</v>
+        <v>1283459353.027351</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07954124322645265</v>
+        <v>0.1176984743732382</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02387423517862964</v>
+        <v>0.02488276152411078</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>622033808.4683732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3448097695.571429</v>
+        <v>3991954038.179332</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1372131765801401</v>
+        <v>0.1549406768501209</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01824934017207866</v>
+        <v>0.02153417722234663</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1724048885.344832</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2642858441.721893</v>
+        <v>3755478930.265495</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123371430279063</v>
+        <v>0.1131421889358864</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03615148563353295</v>
+        <v>0.04600159193365632</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1321429201.037215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4681390235.417199</v>
+        <v>5396697863.777394</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1226711428920853</v>
+        <v>0.1346302098963111</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04058403423107005</v>
+        <v>0.03212969772043316</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2340695087.277579</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1928258320.400015</v>
+        <v>2192137510.024778</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311989833172865</v>
+        <v>0.117385312093147</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0382854337037151</v>
+        <v>0.02670228047055117</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>964129189.4315734</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1234660035.552505</v>
+        <v>1382425243.143728</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07710530271079184</v>
+        <v>0.07831373492480993</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04978454864856172</v>
+        <v>0.05252216968343838</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>617329961.0529041</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1171262180.600158</v>
+        <v>1271917016.035952</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09683871090214041</v>
+        <v>0.1034197433370564</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0279235458014459</v>
+        <v>0.03549314378107193</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>585631090.5178568</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2055133125.404565</v>
+        <v>2714184269.458865</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011831409480083</v>
+        <v>0.1794088717135978</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04001998712357181</v>
+        <v>0.04944429485227708</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1027566638.777088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256744460.764634</v>
+        <v>959982438.2414758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08088144410577096</v>
+        <v>0.08252541588418953</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02410343392841317</v>
+        <v>0.01879446542663067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>628372226.0648292</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1014669038.75986</v>
+        <v>1145231813.569731</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09152647114457114</v>
+        <v>0.1051430789796726</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02997316424765466</v>
+        <v>0.03228814110130068</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>507334534.7039939</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2040813318.819778</v>
+        <v>2843924841.923854</v>
       </c>
       <c r="F36" t="n">
-        <v>0.131342609008699</v>
+        <v>0.156687537786962</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02299398412658001</v>
+        <v>0.02601537959568978</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1020406718.150338</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2475208203.087158</v>
+        <v>1848670804.570214</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07444980014304235</v>
+        <v>0.06879188407623484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02812710170798133</v>
+        <v>0.03246851163192743</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>42</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1237604194.188136</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1963047764.851189</v>
+        <v>1489006521.571481</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1048023115003276</v>
+        <v>0.09903098979527285</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03957914045710722</v>
+        <v>0.02646039902748531</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>981523866.2385049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1733679146.097457</v>
+        <v>1894551037.736641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.156051388200883</v>
+        <v>0.1435062566203443</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02218872131930253</v>
+        <v>0.03299532346127273</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>866839607.973994</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1551747499.411028</v>
+        <v>1486493615.510247</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1488777456382592</v>
+        <v>0.1371388767393108</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05421543225316561</v>
+        <v>0.04254433081923045</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>775873702.9156789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2664116081.81211</v>
+        <v>2469151387.942589</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1528446020916958</v>
+        <v>0.1513622509767304</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03947152047336948</v>
+        <v>0.03694160368227984</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1332058050.062407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3706255723.92289</v>
+        <v>4127547888.593727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09879625031240417</v>
+        <v>0.0769537479044819</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02836737425997475</v>
+        <v>0.04383674503314228</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1853127870.980702</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2051235453.129469</v>
+        <v>3021660078.464994</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1957825583095129</v>
+        <v>0.1531222498770286</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01818824626205841</v>
+        <v>0.0199477778302408</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>53</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1025617820.324664</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2015867638.940712</v>
+        <v>2025311047.452979</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09902336508057823</v>
+        <v>0.09666519653254345</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03696903989516016</v>
+        <v>0.0295691626981493</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1007933928.937893</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1837012576.329413</v>
+        <v>1750142598.343124</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830651786016041</v>
+        <v>0.1889805659612106</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04722860418757216</v>
+        <v>0.04433319510557639</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>918506262.5585984</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4651703007.758988</v>
+        <v>5708017401.561464</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1541423170222422</v>
+        <v>0.1358930888052136</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04643246075711759</v>
+        <v>0.0543747547680921</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>55</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2325851510.687239</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4784106279.916255</v>
+        <v>3609963895.345171</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1791935126531589</v>
+        <v>0.1781455982140911</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04728876527692317</v>
+        <v>0.05040718172587629</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2392053183.472907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3461006514.084825</v>
+        <v>3924156991.37662</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08891820130638409</v>
+        <v>0.0738386667752822</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0368501032244184</v>
+        <v>0.03702600221240637</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>51</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1730503322.698687</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1742933045.415465</v>
+        <v>1731987802.355187</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1808359648348092</v>
+        <v>0.1770351236260603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02786182485950586</v>
+        <v>0.03476189811454512</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>871466516.9332166</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4000041517.953174</v>
+        <v>2820719636.66143</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1164858923560781</v>
+        <v>0.1172766011318666</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03455546004779173</v>
+        <v>0.03401695541479717</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2000020747.614919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1153547262.730968</v>
+        <v>1167482865.928778</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502741679109465</v>
+        <v>0.1213118241556332</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05158406137109316</v>
+        <v>0.03348982020560692</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>576773690.3947012</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3841752528.23146</v>
+        <v>4097702028.893548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243560721149147</v>
+        <v>0.09571061600528297</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03727836895072716</v>
+        <v>0.05020023656199636</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>63</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1920876329.878063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3115149476.369406</v>
+        <v>3220472063.361827</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1779699314367044</v>
+        <v>0.1672960343522781</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02341449032577496</v>
+        <v>0.03067136891215476</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1557574762.60061</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3358210164.169496</v>
+        <v>3959748185.05723</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1321754540763676</v>
+        <v>0.1475050063350126</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04260029049667784</v>
+        <v>0.04723665602421015</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>50</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1679105095.708469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3192820293.878645</v>
+        <v>4137351776.781926</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2243938850415367</v>
+        <v>0.1964013361487847</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03058289387201544</v>
+        <v>0.02474088087882714</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1596410086.18145</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1199854107.582854</v>
+        <v>1472696377.41068</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1584243242021109</v>
+        <v>0.1309890066947191</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0514945634803011</v>
+        <v>0.0367242647365468</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>599927140.4987074</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3676661627.180026</v>
+        <v>3065369142.756789</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1384260894442445</v>
+        <v>0.1464124305929141</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02160431157938553</v>
+        <v>0.02064700254599578</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>49</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1838330874.778634</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1273545399.411099</v>
+        <v>1338273748.862736</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1391793804751445</v>
+        <v>0.1631843405875754</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03097662239765298</v>
+        <v>0.02438739321404991</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>636772751.4778837</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3912262040.621931</v>
+        <v>4163379856.380585</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09831349590257382</v>
+        <v>0.08304746978110547</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04186507201445828</v>
+        <v>0.04302008486499167</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1956131000.431937</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2740904000.359186</v>
+        <v>3541459283.047678</v>
       </c>
       <c r="F60" t="n">
-        <v>0.152780209253961</v>
+        <v>0.1704014979250478</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02243665482576059</v>
+        <v>0.02365247164321062</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1370452043.315049</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2463558093.137659</v>
+        <v>3040803495.808402</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1402121409105993</v>
+        <v>0.1528777544997392</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03131992171622676</v>
+        <v>0.0291040667913423</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1231779077.587106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902877996.378267</v>
+        <v>1630791529.707449</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1310853306755457</v>
+        <v>0.1222455598452164</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04857605267487414</v>
+        <v>0.03461315569156931</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>951439041.6781485</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4348605524.41824</v>
+        <v>4119218205.279294</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07476114181194662</v>
+        <v>0.06598142818277454</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03653853974866202</v>
+        <v>0.04342964724391917</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2174302808.99505</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4394456062.346794</v>
+        <v>3773548765.058158</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1802448841107875</v>
+        <v>0.1243635786024165</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02252085740020066</v>
+        <v>0.02394934769279808</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>48</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2197228094.74531</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4099848377.373833</v>
+        <v>4883978250.458916</v>
       </c>
       <c r="F65" t="n">
-        <v>0.116157478151835</v>
+        <v>0.1423638104260224</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02653024596776345</v>
+        <v>0.02739038531928558</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>55</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2049924201.250704</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4882822426.926168</v>
+        <v>3593354449.98163</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153657546479113</v>
+        <v>0.1006066993079277</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04246564429282575</v>
+        <v>0.03775679683840261</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>45</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2441411234.283725</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2238429464.361732</v>
+        <v>3348452684.016038</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0840340351655092</v>
+        <v>0.0979145730967752</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03113577082890442</v>
+        <v>0.04726714321115513</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>49</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1119214814.844996</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5449300955.36084</v>
+        <v>4988991478.038798</v>
       </c>
       <c r="F68" t="n">
-        <v>0.146532584156693</v>
+        <v>0.1364037621755901</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03417390105064932</v>
+        <v>0.04998453404132368</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>49</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2724650561.268066</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2335932467.921037</v>
+        <v>1928372653.263191</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1341015679735075</v>
+        <v>0.162368483223324</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0464758761678681</v>
+        <v>0.03625694838181433</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1167966282.310399</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3679407967.875751</v>
+        <v>3369054234.283805</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07317186251001923</v>
+        <v>0.07741842227226552</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04163972199315759</v>
+        <v>0.04549274318875364</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>44</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1839704005.061857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3486053742.725565</v>
+        <v>4831420098.067969</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1430038013447479</v>
+        <v>0.1670754509972271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03029860641105812</v>
+        <v>0.02457448888232519</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>56</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1743026864.029341</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1941844301.245516</v>
+        <v>2049185229.68157</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08986370994872096</v>
+        <v>0.07766075428564045</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04080043982090584</v>
+        <v>0.04654073159256959</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>970922106.3318465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2341113001.298161</v>
+        <v>2183660648.859653</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1026600322948012</v>
+        <v>0.09107125231722131</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03756786962567691</v>
+        <v>0.04647369111032187</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1170556556.938581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3487867705.032466</v>
+        <v>3575940745.506798</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1467436920986006</v>
+        <v>0.1158694063238583</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03138381897955354</v>
+        <v>0.02454032162662935</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>52</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1743933875.700584</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2299173325.747571</v>
+        <v>2366203053.334283</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1559989882160892</v>
+        <v>0.1081930634033383</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02747965293105928</v>
+        <v>0.03317922571962142</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1149586598.927321</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4241206307.730735</v>
+        <v>4830457309.81725</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08905370627365544</v>
+        <v>0.08621730855107676</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02639409548328914</v>
+        <v>0.0338371856712649</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2120603148.683709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2130183398.919362</v>
+        <v>2138636901.268011</v>
       </c>
       <c r="F77" t="n">
-        <v>0.134428460040063</v>
+        <v>0.1857794175078839</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03172131510876059</v>
+        <v>0.02433207575117451</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1065091780.1449</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4527472872.182734</v>
+        <v>3781376912.042768</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1044341265214491</v>
+        <v>0.1234028529864161</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04844862906048363</v>
+        <v>0.05332237284765578</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>53</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2263736364.031867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1286583528.549505</v>
+        <v>1199480426.876754</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1606345301287394</v>
+        <v>0.1725656604622543</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03295568108373441</v>
+        <v>0.02529918571023661</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>643291761.1250397</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4902078588.244982</v>
+        <v>3933854026.599894</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09749563438242197</v>
+        <v>0.09637926496943387</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03519701989135503</v>
+        <v>0.02870857391786469</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2451039338.414902</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4408623595.143611</v>
+        <v>4868235603.276073</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1176457316605726</v>
+        <v>0.09781167774704515</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02364798262825065</v>
+        <v>0.02910654583498551</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2204311775.917035</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5018447132.332101</v>
+        <v>5250560112.21475</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1386419718960321</v>
+        <v>0.1818247319855918</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01868770212368621</v>
+        <v>0.02056839938936269</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2509223549.041718</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1786065118.231628</v>
+        <v>2188742569.76589</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1554840568352109</v>
+        <v>0.1190901023073068</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0287451745645493</v>
+        <v>0.03312051239151703</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>893032517.7613071</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2435808032.90108</v>
+        <v>1570566871.58776</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1042253715078034</v>
+        <v>0.08657444610823872</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0513396853801955</v>
+        <v>0.04967388348527692</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1217903957.581914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2550360234.013233</v>
+        <v>2795803863.509625</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1543119367450931</v>
+        <v>0.1513399523606734</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03824633818944137</v>
+        <v>0.04228065775320756</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>58</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1275180127.485503</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2597786402.62922</v>
+        <v>2730329798.195787</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1441008961902418</v>
+        <v>0.154572992419275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0265615325731556</v>
+        <v>0.02156790863457364</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1298893312.009351</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1232055326.180249</v>
+        <v>939930981.762117</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1584976126138682</v>
+        <v>0.1309253153549995</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03746824410707279</v>
+        <v>0.03297901125767439</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>616027726.8522907</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2405425046.484907</v>
+        <v>2820828235.037543</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1243315499435028</v>
+        <v>0.1209978477737889</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03288167601752044</v>
+        <v>0.03098300693081839</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>61</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1202712494.895902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3074755845.591227</v>
+        <v>2514517406.42269</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1558199551524967</v>
+        <v>0.1398740752791779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02623504969580812</v>
+        <v>0.03170614861294012</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1537377955.401155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1304677929.058475</v>
+        <v>1989904715.411885</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08814022480844079</v>
+        <v>0.09926940727772142</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05343469413777965</v>
+        <v>0.04210394165163858</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>652338907.5005352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1949230470.75198</v>
+        <v>1644479221.013113</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1414682882578954</v>
+        <v>0.1327964548148634</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04409847352919982</v>
+        <v>0.0411223717991538</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>974615214.3529495</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2912522783.391176</v>
+        <v>2041481586.511537</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1064462533758315</v>
+        <v>0.09783050112683002</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04048768006752831</v>
+        <v>0.02944214525701275</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>37</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1456261406.801375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4366539337.459991</v>
+        <v>3551522267.70866</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094469320839232</v>
+        <v>0.135968105507082</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03324295842939225</v>
+        <v>0.03513683835147038</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2183269645.590658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1530533165.615809</v>
+        <v>1964679718.44601</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1435124577341403</v>
+        <v>0.1101360156849799</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02701400647972614</v>
+        <v>0.03602640922996126</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>765266519.9874692</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3272400861.193636</v>
+        <v>3205673436.267494</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1332137022165619</v>
+        <v>0.1244280550274156</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03641440930463807</v>
+        <v>0.03794972149845609</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1636200410.468729</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1842517574.216596</v>
+        <v>1611401580.239274</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08993029254846496</v>
+        <v>0.1312566974019927</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04161870092165749</v>
+        <v>0.04217756617500126</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>921258790.8594118</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4566171171.987919</v>
+        <v>3804883269.125009</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1238750414834589</v>
+        <v>0.1396028246167259</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02140955574054739</v>
+        <v>0.02802187550871036</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2283085687.870125</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3286867737.39222</v>
+        <v>3028519834.238036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09427588489362849</v>
+        <v>0.105992975660567</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02225486574261574</v>
+        <v>0.02453620242053134</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>41</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1643433872.799089</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2473155095.757874</v>
+        <v>3278551758.442121</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1145787518639889</v>
+        <v>0.1273471323422204</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02619103910689029</v>
+        <v>0.03340159393884452</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1236577495.6578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3770848504.134932</v>
+        <v>3227502403.484985</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1127001640645847</v>
+        <v>0.1187622038346917</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02320527662022431</v>
+        <v>0.02463260192418928</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1885424304.420566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3175220444.671795</v>
+        <v>3122363284.547505</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2170225183390382</v>
+        <v>0.2084524282032022</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03738727292370083</v>
+        <v>0.05004622713981999</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>64</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1587610334.550888</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_154.xlsx
+++ b/output/fit_clients/fit_round_154.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2498044484.718495</v>
+        <v>1689304564.4762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.109036826664189</v>
+        <v>0.06989911983741857</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04542862632234483</v>
+        <v>0.04448511582778319</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1974862712.629627</v>
+        <v>2427906197.42599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1500808989559752</v>
+        <v>0.1578615561985338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03416279475181228</v>
+        <v>0.0334156059562803</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4245453320.278353</v>
+        <v>4136985092.149237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1514533980652762</v>
+        <v>0.1438248543704258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03270276435194615</v>
+        <v>0.03176218819008021</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4247448334.84884</v>
+        <v>3661851633.93844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09336275466374208</v>
+        <v>0.07820892531403753</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04432970844063046</v>
+        <v>0.03082410523413609</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2004595343.617052</v>
+        <v>2860220977.164042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09267576479863249</v>
+        <v>0.09909776610611952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04310586790227855</v>
+        <v>0.03668667466981841</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1931394712.715764</v>
+        <v>2024378896.030457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06661222199977791</v>
+        <v>0.06188504936519515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03093083766992248</v>
+        <v>0.03730103196674241</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3500291931.007742</v>
+        <v>2696346267.496323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1823703941105032</v>
+        <v>0.1498406261126089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02095627364130197</v>
+        <v>0.02874534938728543</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1475881539.084541</v>
+        <v>1561896966.853594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1573865380139386</v>
+        <v>0.1619127412648643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03528002796390069</v>
+        <v>0.02344417473608964</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5104481911.17538</v>
+        <v>4562377202.805341</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1936800437086645</v>
+        <v>0.1380771324711582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04601696811767939</v>
+        <v>0.04485028598192228</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2702491357.20829</v>
+        <v>3756876131.612883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1417404321366346</v>
+        <v>0.1377226761504394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04148844499901053</v>
+        <v>0.04538041107504588</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3291890134.790599</v>
+        <v>3308621868.038716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1832611493686547</v>
+        <v>0.1643806180627375</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04020306598629064</v>
+        <v>0.04390818700891422</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5294600879.683119</v>
+        <v>3409163840.73486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07385023924409156</v>
+        <v>0.09513335325750441</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03143089021907468</v>
+        <v>0.01919492512236443</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3529524426.37328</v>
+        <v>3195163379.341492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1534081073401889</v>
+        <v>0.1340102815732889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03107770347696467</v>
+        <v>0.03850958135832683</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1112090954.306589</v>
+        <v>1712802490.53704</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09649030270340973</v>
+        <v>0.08248846861246389</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03704130315395806</v>
+        <v>0.03068087226353874</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2695824381.873067</v>
+        <v>2656046870.965765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08485458333287106</v>
+        <v>0.0993058880931343</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03332889216431506</v>
+        <v>0.03499239273226291</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4362667478.362155</v>
+        <v>4236203144.980873</v>
       </c>
       <c r="F17" t="n">
-        <v>0.17098076716623</v>
+        <v>0.126002800291491</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03859355525911231</v>
+        <v>0.05270122733214185</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4013525871.232233</v>
+        <v>3314860683.985923</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1186083158391241</v>
+        <v>0.1836413562710639</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02946734024088946</v>
+        <v>0.02694381188609057</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>918235457.9424365</v>
+        <v>1252774356.028312</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1761299698992568</v>
+        <v>0.1909152183630334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01800568887095657</v>
+        <v>0.02015289903914659</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1946515017.07031</v>
+        <v>1900931852.990365</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1310637380150073</v>
+        <v>0.1535855002242711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02647034172094339</v>
+        <v>0.03097516859116389</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2627014126.337593</v>
+        <v>1820209665.126534</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07680386862468033</v>
+        <v>0.1004472979785062</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0444854157977486</v>
+        <v>0.03253988002442367</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2800357004.075199</v>
+        <v>3013655494.208653</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1367422447313677</v>
+        <v>0.09293301993863465</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04064472235083442</v>
+        <v>0.05707155028490087</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1291378799.469642</v>
+        <v>1135157077.82381</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1454658605742477</v>
+        <v>0.159476928196028</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03485973766272358</v>
+        <v>0.03307064752538429</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3618734913.93398</v>
+        <v>2668682929.560486</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1337704931947168</v>
+        <v>0.1400957721677271</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03094755416493256</v>
+        <v>0.03144279771847152</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1077685256.6503</v>
+        <v>1240430868.924052</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09065498307911381</v>
+        <v>0.09046846836344187</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0285911012653687</v>
+        <v>0.02006097681336931</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1283459353.027351</v>
+        <v>1019897148.111715</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1176984743732382</v>
+        <v>0.1185512375466519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02488276152411078</v>
+        <v>0.03711619648778842</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3991954038.179332</v>
+        <v>4703393249.213134</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1549406768501209</v>
+        <v>0.1158721655218838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02153417722234663</v>
+        <v>0.0249063613858021</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3755478930.265495</v>
+        <v>3156396225.161372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131421889358864</v>
+        <v>0.1274687826522897</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04600159193365632</v>
+        <v>0.03363212655115856</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5396697863.777394</v>
+        <v>3694494047.309634</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1346302098963111</v>
+        <v>0.1106399659979715</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03212969772043316</v>
+        <v>0.02816911607320697</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2192137510.024778</v>
+        <v>1940418330.985366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.117385312093147</v>
+        <v>0.1047327659582898</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02670228047055117</v>
+        <v>0.03344801534189137</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1382425243.143728</v>
+        <v>1217899401.415691</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07831373492480993</v>
+        <v>0.102759616961975</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05252216968343838</v>
+        <v>0.04592017226434075</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1271917016.035952</v>
+        <v>1475986172.287579</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034197433370564</v>
+        <v>0.09146030319427767</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03549314378107193</v>
+        <v>0.0279132193065992</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2714184269.458865</v>
+        <v>2732837818.955933</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1794088717135978</v>
+        <v>0.1392423987460295</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04944429485227708</v>
+        <v>0.05728288567026775</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>959982438.2414758</v>
+        <v>1562605854.261741</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08252541588418953</v>
+        <v>0.0740835763261202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01879446542663067</v>
+        <v>0.01771592856778687</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1145231813.569731</v>
+        <v>981221170.6628516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1051430789796726</v>
+        <v>0.1132615355138003</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03228814110130068</v>
+        <v>0.02896289990295983</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2843924841.923854</v>
+        <v>2993348171.847941</v>
       </c>
       <c r="F36" t="n">
-        <v>0.156687537786962</v>
+        <v>0.1166225326731571</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02601537959568978</v>
+        <v>0.0189883146734758</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1848670804.570214</v>
+        <v>2073522200.879312</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06879188407623484</v>
+        <v>0.1060031051727499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03246851163192743</v>
+        <v>0.0281308452398773</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1489006521.571481</v>
+        <v>1619794057.28189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09903098979527285</v>
+        <v>0.1083719644373062</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02646039902748531</v>
+        <v>0.02889747944218513</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1894551037.736641</v>
+        <v>1527923262.806593</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1435062566203443</v>
+        <v>0.1851427103068485</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03299532346127273</v>
+        <v>0.02812867403778702</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1486493615.510247</v>
+        <v>1117407058.1802</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1371388767393108</v>
+        <v>0.1604675841946294</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04254433081923045</v>
+        <v>0.0569491542787806</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2469151387.942589</v>
+        <v>2532545875.985984</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1513622509767304</v>
+        <v>0.1094615388275598</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03694160368227984</v>
+        <v>0.03519878982698105</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4127547888.593727</v>
+        <v>2992724322.692076</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0769537479044819</v>
+        <v>0.1049157244260248</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04383674503314228</v>
+        <v>0.03614455581544192</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3021660078.464994</v>
+        <v>2310236457.245445</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1531222498770286</v>
+        <v>0.1427847355980757</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0199477778302408</v>
+        <v>0.02511166385406784</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2025311047.452979</v>
+        <v>2051725915.444066</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09666519653254345</v>
+        <v>0.09063652886619897</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0295691626981493</v>
+        <v>0.02811884380585533</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1750142598.343124</v>
+        <v>2545489313.894805</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1889805659612106</v>
+        <v>0.1883681887951954</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04433319510557639</v>
+        <v>0.05098842114685132</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5708017401.561464</v>
+        <v>5395008081.634168</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1358930888052136</v>
+        <v>0.1609615680589143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0543747547680921</v>
+        <v>0.05617729910801146</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3609963895.345171</v>
+        <v>3309843717.582697</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1781455982140911</v>
+        <v>0.1317548517799266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05040718172587629</v>
+        <v>0.04758823080301205</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3924156991.37662</v>
+        <v>3407624528.576138</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0738386667752822</v>
+        <v>0.1057481226626804</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03702600221240637</v>
+        <v>0.02415868380697616</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1731987802.355187</v>
+        <v>1472577173.240223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1770351236260603</v>
+        <v>0.1328234565491146</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03476189811454512</v>
+        <v>0.02951362057732007</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2820719636.66143</v>
+        <v>3187586056.397108</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1172766011318666</v>
+        <v>0.163141126200238</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03401695541479717</v>
+        <v>0.05005666424183491</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1167482865.928778</v>
+        <v>976368788.7621504</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213118241556332</v>
+        <v>0.1549550533748373</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03348982020560692</v>
+        <v>0.03909879052335696</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4097702028.893548</v>
+        <v>4014322522.82396</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09571061600528297</v>
+        <v>0.1019513834049749</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05020023656199636</v>
+        <v>0.04370812547213829</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3220472063.361827</v>
+        <v>3509441141.679338</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1672960343522781</v>
+        <v>0.1804723837009176</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03067136891215476</v>
+        <v>0.03488609421670334</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3959748185.05723</v>
+        <v>4669084575.995875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1475050063350126</v>
+        <v>0.1251023183858151</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04723665602421015</v>
+        <v>0.04983566367692375</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4137351776.781926</v>
+        <v>3286963084.974314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1964013361487847</v>
+        <v>0.1858568961448117</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02474088087882714</v>
+        <v>0.02522102581916653</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1472696377.41068</v>
+        <v>1830069719.920581</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1309890066947191</v>
+        <v>0.1280278086622503</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0367242647365468</v>
+        <v>0.03652479575506728</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3065369142.756789</v>
+        <v>3231220644.507136</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1464124305929141</v>
+        <v>0.1566686904676004</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02064700254599578</v>
+        <v>0.01675846480504013</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1338273748.862736</v>
+        <v>1351043488.600603</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1631843405875754</v>
+        <v>0.1463205707792215</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02438739321404991</v>
+        <v>0.03424898316630098</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4163379856.380585</v>
+        <v>4274032036.879691</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08304746978110547</v>
+        <v>0.1203641576706692</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04302008486499167</v>
+        <v>0.04720472642137435</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3541459283.047678</v>
+        <v>2462137325.936988</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1704014979250478</v>
+        <v>0.1351311647858024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02365247164321062</v>
+        <v>0.0267875554926902</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3040803495.808402</v>
+        <v>3169143530.708102</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1528777544997392</v>
+        <v>0.1608298997111338</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0291040667913423</v>
+        <v>0.02115939560894907</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1630791529.707449</v>
+        <v>1722405838.48419</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1222455598452164</v>
+        <v>0.1645927698158463</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03461315569156931</v>
+        <v>0.03272912408972932</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4119218205.279294</v>
+        <v>3894477073.451919</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06598142818277454</v>
+        <v>0.0769964129557637</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04342964724391917</v>
+        <v>0.04436464512425302</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3773548765.058158</v>
+        <v>4310613055.944354</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1243635786024165</v>
+        <v>0.1179570213947372</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02394934769279808</v>
+        <v>0.02211298311521996</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4883978250.458916</v>
+        <v>4573837291.482865</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1423638104260224</v>
+        <v>0.1379436481058007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02739038531928558</v>
+        <v>0.02969059316800869</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3593354449.98163</v>
+        <v>4208279200.076429</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006066993079277</v>
+        <v>0.09906699826534693</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03775679683840261</v>
+        <v>0.031828447508446</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3348452684.016038</v>
+        <v>3514437486.400904</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0979145730967752</v>
+        <v>0.102621673657114</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04726714321115513</v>
+        <v>0.03417406765588756</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4988991478.038798</v>
+        <v>3736521579.508786</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1364037621755901</v>
+        <v>0.1315745624548866</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04998453404132368</v>
+        <v>0.03146838410644812</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1928372653.263191</v>
+        <v>2239077061.081656</v>
       </c>
       <c r="F69" t="n">
-        <v>0.162368483223324</v>
+        <v>0.1711789254767385</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03625694838181433</v>
+        <v>0.05928769874504462</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3369054234.283805</v>
+        <v>3569963070.831576</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07741842227226552</v>
+        <v>0.07869569024892059</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04549274318875364</v>
+        <v>0.0436907562465322</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4831420098.067969</v>
+        <v>4274737917.106356</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1670754509972271</v>
+        <v>0.1355686059013584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02457448888232519</v>
+        <v>0.02180231048287063</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2049185229.68157</v>
+        <v>1967446777.19843</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07766075428564045</v>
+        <v>0.08134176504180343</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04654073159256959</v>
+        <v>0.03966031098655359</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2183660648.859653</v>
+        <v>2596314003.952665</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09107125231722131</v>
+        <v>0.1112012183053519</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04647369111032187</v>
+        <v>0.03604398448185684</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3575940745.506798</v>
+        <v>3284154493.640738</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1158694063238583</v>
+        <v>0.1477275201038765</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02454032162662935</v>
+        <v>0.03257935652483265</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2366203053.334283</v>
+        <v>2235701666.748049</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1081930634033383</v>
+        <v>0.1339141951901733</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03317922571962142</v>
+        <v>0.03300180496240152</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4830457309.81725</v>
+        <v>4283227532.645362</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08621730855107676</v>
+        <v>0.1077238419165764</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0338371856712649</v>
+        <v>0.02381451863356583</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2138636901.268011</v>
+        <v>1657223007.495611</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1857794175078839</v>
+        <v>0.1802451149107194</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02433207575117451</v>
+        <v>0.02690098298766372</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3781376912.042768</v>
+        <v>4804430261.212843</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1234028529864161</v>
+        <v>0.1246132532838212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05332237284765578</v>
+        <v>0.05255987503534346</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1199480426.876754</v>
+        <v>1764392057.562579</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1725656604622543</v>
+        <v>0.1209043914057951</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02529918571023661</v>
+        <v>0.03763583195113007</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3933854026.599894</v>
+        <v>5104575469.713305</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09637926496943387</v>
+        <v>0.109816403531307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02870857391786469</v>
+        <v>0.0297387548486908</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4868235603.276073</v>
+        <v>5105124556.792975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09781167774704515</v>
+        <v>0.1085685474921654</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02910654583498551</v>
+        <v>0.02469968056193358</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5250560112.21475</v>
+        <v>3493506259.359908</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818247319855918</v>
+        <v>0.1320940255034161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02056839938936269</v>
+        <v>0.01799418401305593</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2188742569.76589</v>
+        <v>1637001773.081404</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1190901023073068</v>
+        <v>0.1200951837333361</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03312051239151703</v>
+        <v>0.02883479735625761</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1570566871.58776</v>
+        <v>1967470411.939117</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08657444610823872</v>
+        <v>0.117015866807147</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04967388348527692</v>
+        <v>0.03885798720388698</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2795803863.509625</v>
+        <v>3631914621.837462</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1513399523606734</v>
+        <v>0.1667821384465079</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04228065775320756</v>
+        <v>0.04145767058849331</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2730329798.195787</v>
+        <v>2080347590.623809</v>
       </c>
       <c r="F86" t="n">
-        <v>0.154572992419275</v>
+        <v>0.1629269516212482</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02156790863457364</v>
+        <v>0.02247457539747117</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>939930981.762117</v>
+        <v>1072354024.909557</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1309253153549995</v>
+        <v>0.1402571656747596</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03297901125767439</v>
+        <v>0.03146360942350681</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2820828235.037543</v>
+        <v>3577240399.891572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1209978477737889</v>
+        <v>0.1675751238854296</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03098300693081839</v>
+        <v>0.03545565750273742</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2514517406.42269</v>
+        <v>2418559503.891613</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1398740752791779</v>
+        <v>0.154421635191465</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03170614861294012</v>
+        <v>0.02989851272011569</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1989904715.411885</v>
+        <v>1740008482.180309</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09926940727772142</v>
+        <v>0.122208284351502</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04210394165163858</v>
+        <v>0.0460502652375877</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1644479221.013113</v>
+        <v>2022146779.446261</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1327964548148634</v>
+        <v>0.1394581290935905</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0411223717991538</v>
+        <v>0.04599747647690558</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2041481586.511537</v>
+        <v>2633396299.204269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09783050112683002</v>
+        <v>0.1038747588242279</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02944214525701275</v>
+        <v>0.03765355345408717</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3551522267.70866</v>
+        <v>4206797190.81737</v>
       </c>
       <c r="F93" t="n">
-        <v>0.135968105507082</v>
+        <v>0.1162336431724157</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03513683835147038</v>
+        <v>0.03722514652574244</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1964679718.44601</v>
+        <v>1780647343.248708</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1101360156849799</v>
+        <v>0.1026587404378105</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03602640922996126</v>
+        <v>0.02942994799066192</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3205673436.267494</v>
+        <v>2910588601.827486</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1244280550274156</v>
+        <v>0.1333643054703937</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03794972149845609</v>
+        <v>0.04040095912686782</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1611401580.239274</v>
+        <v>1846976486.417135</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1312566974019927</v>
+        <v>0.09669920014818485</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04217756617500126</v>
+        <v>0.03407276490091646</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3804883269.125009</v>
+        <v>3383757407.374331</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1396028246167259</v>
+        <v>0.1396994181574904</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02802187550871036</v>
+        <v>0.01969759202451377</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3028519834.238036</v>
+        <v>3331390655.261326</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105992975660567</v>
+        <v>0.08752113765306666</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02453620242053134</v>
+        <v>0.02931013553212481</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3278551758.442121</v>
+        <v>2971840990.363832</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1273471323422204</v>
+        <v>0.1455148752997061</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03340159393884452</v>
+        <v>0.02190969867929212</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3227502403.484985</v>
+        <v>4035006670.055083</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1187622038346917</v>
+        <v>0.1654833039936151</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02463260192418928</v>
+        <v>0.02228542270643207</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3122363284.547505</v>
+        <v>2951446607.235899</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2084524282032022</v>
+        <v>0.155076306395802</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05004622713981999</v>
+        <v>0.05028296418882313</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_154.xlsx
+++ b/output/fit_clients/fit_round_154.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1689304564.4762</v>
+        <v>1713236763.638814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06989911983741857</v>
+        <v>0.09085471791626129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04448511582778319</v>
+        <v>0.03279801203807162</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2427906197.42599</v>
+        <v>2271827528.190333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1578615561985338</v>
+        <v>0.1666818616738105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0334156059562803</v>
+        <v>0.03253337012708697</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4136985092.149237</v>
+        <v>4653517540.020713</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1438248543704258</v>
+        <v>0.1381934600329898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03176218819008021</v>
+        <v>0.02803162332364521</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>136.7259633015354</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3661851633.93844</v>
+        <v>3219670468.549375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07820892531403753</v>
+        <v>0.1073887849739119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03082410523413609</v>
+        <v>0.04170717830621844</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2860220977.164042</v>
+        <v>2766680742.23884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09909776610611952</v>
+        <v>0.09903776511041061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03668667466981841</v>
+        <v>0.04826744060168792</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2024378896.030457</v>
+        <v>2784513245.032221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06188504936519515</v>
+        <v>0.09419349915490895</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03730103196674241</v>
+        <v>0.0323687061984279</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2696346267.496323</v>
+        <v>3935636691.702919</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1498406261126089</v>
+        <v>0.2088809518860345</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02874534938728543</v>
+        <v>0.02998853796843028</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1561896966.853594</v>
+        <v>1400364732.854673</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1619127412648643</v>
+        <v>0.177767376008958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02344417473608964</v>
+        <v>0.0337913133718156</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4562377202.805341</v>
+        <v>5158901298.48858</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380771324711582</v>
+        <v>0.2134944346968193</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04485028598192228</v>
+        <v>0.05245787770696451</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>141</v>
+      </c>
+      <c r="J10" t="n">
+        <v>154</v>
+      </c>
+      <c r="K10" t="n">
+        <v>150.8895944486464</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3756876131.612883</v>
+        <v>3936965500.376947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1377226761504394</v>
+        <v>0.1772902047088579</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04538041107504588</v>
+        <v>0.042711871341345</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3308621868.038716</v>
+        <v>2519912477.462363</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1643806180627375</v>
+        <v>0.1971181238791394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04390818700891422</v>
+        <v>0.03589965780032682</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3409163840.73486</v>
+        <v>3808546515.872212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09513335325750441</v>
+        <v>0.07686834880385711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01919492512236443</v>
+        <v>0.02646997063668272</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>153</v>
+      </c>
+      <c r="K13" t="n">
+        <v>101.8082560987122</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3195163379.341492</v>
+        <v>3063551198.97589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1340102815732889</v>
+        <v>0.1547468949712771</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03850958135832683</v>
+        <v>0.03954345319295473</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1712802490.53704</v>
+        <v>1545438869.755169</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08248846861246389</v>
+        <v>0.08643345561686347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03068087226353874</v>
+        <v>0.04707159985352978</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2656046870.965765</v>
+        <v>2879265444.827648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0993058880931343</v>
+        <v>0.1117494296530459</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03499239273226291</v>
+        <v>0.0454979374510845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4236203144.980873</v>
+        <v>4846926578.578197</v>
       </c>
       <c r="F17" t="n">
-        <v>0.126002800291491</v>
+        <v>0.1704929886934894</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05270122733214185</v>
+        <v>0.03251830375890585</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>74</v>
+      </c>
+      <c r="J17" t="n">
+        <v>154</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3314860683.985923</v>
+        <v>3614553091.393695</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1836413562710639</v>
+        <v>0.1279563920237899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02694381188609057</v>
+        <v>0.02813371194049998</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38</v>
+      </c>
+      <c r="J18" t="n">
+        <v>153</v>
+      </c>
+      <c r="K18" t="n">
+        <v>91.57243906353902</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252774356.028312</v>
+        <v>1213148348.080392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1909152183630334</v>
+        <v>0.1684183576744355</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02015289903914659</v>
+        <v>0.02393601416187857</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1900931852.990365</v>
+        <v>2309775702.132592</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1535855002242711</v>
+        <v>0.09979725846910298</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03097516859116389</v>
+        <v>0.02815466058994278</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1820209665.126534</v>
+        <v>2076382930.658119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004472979785062</v>
+        <v>0.08170902044874662</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03253988002442367</v>
+        <v>0.02984885635995211</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3013655494.208653</v>
+        <v>3440275521.047317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09293301993863465</v>
+        <v>0.08756149502941789</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05707155028490087</v>
+        <v>0.05261505809579103</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
+      <c r="J22" t="n">
+        <v>153</v>
+      </c>
+      <c r="K22" t="n">
+        <v>76.71926486065827</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1135157077.82381</v>
+        <v>1063916453.364626</v>
       </c>
       <c r="F23" t="n">
-        <v>0.159476928196028</v>
+        <v>0.1785173105953846</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03307064752538429</v>
+        <v>0.04653787399124083</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2668682929.560486</v>
+        <v>3783381569.914565</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1400957721677271</v>
+        <v>0.09556727883981586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03144279771847152</v>
+        <v>0.02376668603184358</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>154</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1240430868.924052</v>
+        <v>1212323974.253427</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09046846836344187</v>
+        <v>0.09600576106802662</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02006097681336931</v>
+        <v>0.02118649043469082</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1019897148.111715</v>
+        <v>1123939260.064577</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185512375466519</v>
+        <v>0.1082669696329317</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03711619648778842</v>
+        <v>0.02757185229425412</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4703393249.213134</v>
+        <v>4373177355.808422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1158721655218838</v>
+        <v>0.1418277326184247</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0249063613858021</v>
+        <v>0.02036834924036986</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>153</v>
+      </c>
+      <c r="K27" t="n">
+        <v>116.2190946899535</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3156396225.161372</v>
+        <v>3342916852.29214</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1274687826522897</v>
+        <v>0.1314772648973714</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03363212655115856</v>
+        <v>0.03664509034924868</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3694494047.309634</v>
+        <v>5825045294.003634</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1106399659979715</v>
+        <v>0.101045297623608</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02816911607320697</v>
+        <v>0.04042645969267714</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>143</v>
+      </c>
+      <c r="J29" t="n">
+        <v>154</v>
+      </c>
+      <c r="K29" t="n">
+        <v>160.6435243502331</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1940418330.985366</v>
+        <v>1764340293.550137</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1047327659582898</v>
+        <v>0.08977659935554956</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03344801534189137</v>
+        <v>0.02607947024145125</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1217899401.415691</v>
+        <v>1167584740.363956</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102759616961975</v>
+        <v>0.1069566128846964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04592017226434075</v>
+        <v>0.03768396225594366</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1475986172.287579</v>
+        <v>1869753293.802313</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09146030319427767</v>
+        <v>0.1022506637546117</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0279132193065992</v>
+        <v>0.02759618308216622</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2732837818.955933</v>
+        <v>2360275487.381527</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1392423987460295</v>
+        <v>0.1880912652639749</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05728288567026775</v>
+        <v>0.0559729379445936</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562605854.261741</v>
+        <v>1044184866.199729</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0740835763261202</v>
+        <v>0.08241306042315902</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01771592856778687</v>
+        <v>0.02390441994866304</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>981221170.6628516</v>
+        <v>1228877466.250793</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1132615355138003</v>
+        <v>0.09878722937652325</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02896289990295983</v>
+        <v>0.03782459941121135</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2993348171.847941</v>
+        <v>2504755450.919889</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166225326731571</v>
+        <v>0.1241973995751427</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0189883146734758</v>
+        <v>0.02425529979810836</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2073522200.879312</v>
+        <v>1824531314.42545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060031051727499</v>
+        <v>0.1111329564560018</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0281308452398773</v>
+        <v>0.03729450158861745</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1619794057.28189</v>
+        <v>1383810452.295868</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1083719644373062</v>
+        <v>0.1016387042552466</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02889747944218513</v>
+        <v>0.03093945664765128</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527923262.806593</v>
+        <v>1690808034.61237</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1851427103068485</v>
+        <v>0.1193487985772513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02812867403778702</v>
+        <v>0.03275900710439136</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1117407058.1802</v>
+        <v>1516288612.417106</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1604675841946294</v>
+        <v>0.1236441384858257</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0569491542787806</v>
+        <v>0.04144219564816023</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2532545875.985984</v>
+        <v>2137382841.545217</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1094615388275598</v>
+        <v>0.1248957413248047</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03519878982698105</v>
+        <v>0.04251054308178098</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2992724322.692076</v>
+        <v>3374960054.842736</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1049157244260248</v>
+        <v>0.1101983228387777</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03614455581544192</v>
+        <v>0.02913518583981197</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>56</v>
+      </c>
+      <c r="J42" t="n">
+        <v>152</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2310236457.245445</v>
+        <v>2045688529.415498</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1427847355980757</v>
+        <v>0.1357136281299542</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02511166385406784</v>
+        <v>0.0157913960176469</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2051725915.444066</v>
+        <v>2300235378.467513</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09063652886619897</v>
+        <v>0.09451666412325936</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02811884380585533</v>
+        <v>0.034301125485927</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2545489313.894805</v>
+        <v>1937300607.965482</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1883681887951954</v>
+        <v>0.1380061804584368</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05098842114685132</v>
+        <v>0.05307956238443874</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5395008081.634168</v>
+        <v>4417578500.501393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1609615680589143</v>
+        <v>0.1454654742789412</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05617729910801146</v>
+        <v>0.03934993269708755</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>87</v>
+      </c>
+      <c r="J46" t="n">
+        <v>154</v>
+      </c>
+      <c r="K46" t="n">
+        <v>138.3845987589655</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3309843717.582697</v>
+        <v>3662144015.662775</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1317548517799266</v>
+        <v>0.1712618266952096</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04758823080301205</v>
+        <v>0.04675709988407287</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>68</v>
+      </c>
+      <c r="J47" t="n">
+        <v>152</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3407624528.576138</v>
+        <v>3559790969.156834</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1057481226626804</v>
+        <v>0.06776830530967984</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02415868380697616</v>
+        <v>0.02833308591745053</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>68</v>
+      </c>
+      <c r="J48" t="n">
+        <v>153</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.21888903163284</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1472577173.240223</v>
+        <v>1452074868.292681</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1328234565491146</v>
+        <v>0.196677304125118</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02951362057732007</v>
+        <v>0.03612683799785001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3187586056.397108</v>
+        <v>2593491737.579709</v>
       </c>
       <c r="F50" t="n">
-        <v>0.163141126200238</v>
+        <v>0.1375997193003937</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05005666424183491</v>
+        <v>0.03522346437710614</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>51</v>
+      </c>
+      <c r="J50" t="n">
+        <v>153</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.06488161608359</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>976368788.7621504</v>
+        <v>1128970022.807737</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1549550533748373</v>
+        <v>0.1415350793006863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03909879052335696</v>
+        <v>0.0344010419442443</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4014322522.82396</v>
+        <v>3549858257.836449</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1019513834049749</v>
+        <v>0.1345060015133243</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04370812547213829</v>
+        <v>0.04272682564664552</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>113</v>
+      </c>
+      <c r="J52" t="n">
+        <v>153</v>
+      </c>
+      <c r="K52" t="n">
+        <v>91.12408632956145</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3509441141.679338</v>
+        <v>3725116568.097121</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1804723837009176</v>
+        <v>0.1283030092693884</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03488609421670334</v>
+        <v>0.02602162285427074</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4669084575.995875</v>
+        <v>4712148979.844317</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1251023183858151</v>
+        <v>0.1592722093983784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04983566367692375</v>
+        <v>0.04192594621231094</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>73</v>
+      </c>
+      <c r="J54" t="n">
+        <v>154</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3286963084.974314</v>
+        <v>4487149775.628676</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1858568961448117</v>
+        <v>0.1377564706831488</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02522102581916653</v>
+        <v>0.02469470875432034</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>70</v>
+      </c>
+      <c r="J55" t="n">
+        <v>154</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1830069719.920581</v>
+        <v>1227378197.904471</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1280278086622503</v>
+        <v>0.1467218224022071</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03652479575506728</v>
+        <v>0.03526234929912696</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3231220644.507136</v>
+        <v>4250745548.257184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1566686904676004</v>
+        <v>0.1459683939526689</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01675846480504013</v>
+        <v>0.02199733328999229</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>62</v>
+      </c>
+      <c r="J57" t="n">
+        <v>154</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1351043488.600603</v>
+        <v>1232515638.829771</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1463205707792215</v>
+        <v>0.1366057507843582</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03424898316630098</v>
+        <v>0.03635371271233326</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4274032036.879691</v>
+        <v>3465844368.064166</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1203641576706692</v>
+        <v>0.1197997728422362</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04720472642137435</v>
+        <v>0.04587095893892851</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>75</v>
+      </c>
+      <c r="J59" t="n">
+        <v>153</v>
+      </c>
+      <c r="K59" t="n">
+        <v>80.55714908081458</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2462137325.936988</v>
+        <v>3355744480.926064</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1351311647858024</v>
+        <v>0.1392073054892664</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0267875554926902</v>
+        <v>0.02599204094719963</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3169143530.708102</v>
+        <v>3351464762.21378</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1608298997111338</v>
+        <v>0.1536498777340707</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02115939560894907</v>
+        <v>0.03089884199928264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1722405838.48419</v>
+        <v>1837898800.272648</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1645927698158463</v>
+        <v>0.1561186817053779</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03272912408972932</v>
+        <v>0.0335361773770971</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3894477073.451919</v>
+        <v>5509864853.806275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0769964129557637</v>
+        <v>0.07856885080210402</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04436464512425302</v>
+        <v>0.04520388476775453</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>154</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4310613055.944354</v>
+        <v>3810410400.407287</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1179570213947372</v>
+        <v>0.1847484916598452</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02211298311521996</v>
+        <v>0.03092787170967026</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>76</v>
+      </c>
+      <c r="J64" t="n">
+        <v>154</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4573837291.482865</v>
+        <v>5271231421.459673</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1379436481058007</v>
+        <v>0.1242848653136599</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02969059316800869</v>
+        <v>0.02420458809840296</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>127</v>
+      </c>
+      <c r="J65" t="n">
+        <v>154</v>
+      </c>
+      <c r="K65" t="n">
+        <v>139.5993803485384</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4208279200.076429</v>
+        <v>5440256553.009854</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09906699826534693</v>
+        <v>0.1612863704973477</v>
       </c>
       <c r="G66" t="n">
-        <v>0.031828447508446</v>
+        <v>0.03701855888573225</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>76</v>
+      </c>
+      <c r="J66" t="n">
+        <v>153</v>
+      </c>
+      <c r="K66" t="n">
+        <v>126.4082968054189</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3514437486.400904</v>
+        <v>2366617766.260972</v>
       </c>
       <c r="F67" t="n">
-        <v>0.102621673657114</v>
+        <v>0.09565658874638878</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03417406765588756</v>
+        <v>0.0342259979615127</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3736521579.508786</v>
+        <v>5300924462.17974</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1315745624548866</v>
+        <v>0.1186628603855803</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03146838410644812</v>
+        <v>0.03691859137208928</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>77</v>
+      </c>
+      <c r="J68" t="n">
+        <v>154</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2239077061.081656</v>
+        <v>1693131677.781067</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1711789254767385</v>
+        <v>0.1793626972583069</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05928769874504462</v>
+        <v>0.04293322096962168</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3569963070.831576</v>
+        <v>2455087474.99257</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07869569024892059</v>
+        <v>0.06602201131516426</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0436907562465322</v>
+        <v>0.04938029617010194</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4274737917.106356</v>
+        <v>4069994171.639256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1355686059013584</v>
+        <v>0.1605886910981668</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02180231048287063</v>
+        <v>0.0274218252567033</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>121</v>
+      </c>
+      <c r="J71" t="n">
+        <v>154</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967446777.19843</v>
+        <v>2064346686.801004</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08134176504180343</v>
+        <v>0.08099599622608365</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03966031098655359</v>
+        <v>0.04481944994912555</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2596314003.952665</v>
+        <v>2658893584.073861</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1112012183053519</v>
+        <v>0.07345102569315191</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03604398448185684</v>
+        <v>0.048181757459453</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3284154493.640738</v>
+        <v>3179321448.940875</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1477275201038765</v>
+        <v>0.1306102527871736</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03257935652483265</v>
+        <v>0.03150663306566494</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>47</v>
+      </c>
+      <c r="J74" t="n">
+        <v>153</v>
+      </c>
+      <c r="K74" t="n">
+        <v>72.84959183861471</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2235701666.748049</v>
+        <v>1751151461.817315</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339141951901733</v>
+        <v>0.1359750251208945</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03300180496240152</v>
+        <v>0.02981589525764801</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4283227532.645362</v>
+        <v>5329308449.538905</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077238419165764</v>
+        <v>0.1109620738389602</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02381451863356583</v>
+        <v>0.03104443372627327</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>70</v>
+      </c>
+      <c r="J76" t="n">
+        <v>154</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1657223007.495611</v>
+        <v>2140561602.611339</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1802451149107194</v>
+        <v>0.1169093985144763</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02690098298766372</v>
+        <v>0.02278672869866218</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4804430261.212843</v>
+        <v>4309441783.536098</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1246132532838212</v>
+        <v>0.08335878990677917</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05255987503534346</v>
+        <v>0.03447608969847581</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>77</v>
+      </c>
+      <c r="J78" t="n">
+        <v>154</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1764392057.562579</v>
+        <v>1157009407.325588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1209043914057951</v>
+        <v>0.1156958215610373</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03763583195113007</v>
+        <v>0.02911769474504072</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5104575469.713305</v>
+        <v>4662493728.366421</v>
       </c>
       <c r="F80" t="n">
-        <v>0.109816403531307</v>
+        <v>0.1029629196641444</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0297387548486908</v>
+        <v>0.03839984035220899</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>75</v>
+      </c>
+      <c r="J80" t="n">
+        <v>153</v>
+      </c>
+      <c r="K80" t="n">
+        <v>100.5955562650663</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5105124556.792975</v>
+        <v>4036083664.368101</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1085685474921654</v>
+        <v>0.1022632392518085</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02469968056193358</v>
+        <v>0.02883169166898835</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>70</v>
+      </c>
+      <c r="J81" t="n">
+        <v>154</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3493506259.359908</v>
+        <v>4478020971.578353</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1320940255034161</v>
+        <v>0.1976662234396901</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01799418401305593</v>
+        <v>0.02862330738450353</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>112</v>
+      </c>
+      <c r="J82" t="n">
+        <v>154</v>
+      </c>
+      <c r="K82" t="n">
+        <v>145.5415758951642</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1637001773.081404</v>
+        <v>1693764578.00197</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1200951837333361</v>
+        <v>0.1015413865705759</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02883479735625761</v>
+        <v>0.02736494157962128</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1967470411.939117</v>
+        <v>1578184429.959747</v>
       </c>
       <c r="F84" t="n">
-        <v>0.117015866807147</v>
+        <v>0.10744993499458</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03885798720388698</v>
+        <v>0.04689668798996334</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3631914621.837462</v>
+        <v>2663674486.28965</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1667821384465079</v>
+        <v>0.1685275478056656</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04145767058849331</v>
+        <v>0.04565449201320268</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2080347590.623809</v>
+        <v>2276023786.02705</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1629269516212482</v>
+        <v>0.1629468649646959</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02247457539747117</v>
+        <v>0.0245535815265578</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1072354024.909557</v>
+        <v>916214273.394281</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1402571656747596</v>
+        <v>0.1240972085964086</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03146360942350681</v>
+        <v>0.02711552479439695</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3577240399.891572</v>
+        <v>2901319863.423391</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1675751238854296</v>
+        <v>0.1391181840676678</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03545565750273742</v>
+        <v>0.03253376863874065</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>153</v>
+      </c>
+      <c r="K88" t="n">
+        <v>64.0330118298925</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2418559503.891613</v>
+        <v>3277725962.870249</v>
       </c>
       <c r="F89" t="n">
-        <v>0.154421635191465</v>
+        <v>0.1382205930445532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02989851272011569</v>
+        <v>0.04155401901489035</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1740008482.180309</v>
+        <v>2032414063.846339</v>
       </c>
       <c r="F90" t="n">
-        <v>0.122208284351502</v>
+        <v>0.1038559723357462</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0460502652375877</v>
+        <v>0.04273770631855516</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2022146779.446261</v>
+        <v>1821519415.803023</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1394581290935905</v>
+        <v>0.1315474693951586</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04599747647690558</v>
+        <v>0.05579136910426628</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2633396299.204269</v>
+        <v>2738380063.042133</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038747588242279</v>
+        <v>0.07547671234928827</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03765355345408717</v>
+        <v>0.04031314462081803</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4206797190.81737</v>
+        <v>4309018733.307533</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1162336431724157</v>
+        <v>0.1318603647216978</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03722514652574244</v>
+        <v>0.045388115925867</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>69</v>
+      </c>
+      <c r="J93" t="n">
+        <v>154</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1780647343.248708</v>
+        <v>2030140660.944023</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1026587404378105</v>
+        <v>0.1542729265013179</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02942994799066192</v>
+        <v>0.04071240149663044</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2910588601.827486</v>
+        <v>3151575706.110583</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1333643054703937</v>
+        <v>0.1284869712477254</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04040095912686782</v>
+        <v>0.0346170188918649</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1846976486.417135</v>
+        <v>2135765827.945382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09669920014818485</v>
+        <v>0.1251162667923831</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03407276490091646</v>
+        <v>0.03622758191773714</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3383757407.374331</v>
+        <v>4390993911.954156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1396994181574904</v>
+        <v>0.1188301311007689</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01969759202451377</v>
+        <v>0.02329052975528947</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>74</v>
+      </c>
+      <c r="J97" t="n">
+        <v>153</v>
+      </c>
+      <c r="K97" t="n">
+        <v>134.6483892861112</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3331390655.261326</v>
+        <v>3686910203.344487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08752113765306666</v>
+        <v>0.08702204079080982</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02931013553212481</v>
+        <v>0.02327687847917097</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2971840990.363832</v>
+        <v>2698557527.034883</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1455148752997061</v>
+        <v>0.1105930250186489</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02190969867929212</v>
+        <v>0.02745974791315378</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4035006670.055083</v>
+        <v>4752466554.970296</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1654833039936151</v>
+        <v>0.1604607862049869</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02228542270643207</v>
+        <v>0.02555853119608415</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>64</v>
+      </c>
+      <c r="J100" t="n">
+        <v>153</v>
+      </c>
+      <c r="K100" t="n">
+        <v>127.7253223501195</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2951446607.235899</v>
+        <v>2435136598.412277</v>
       </c>
       <c r="F101" t="n">
-        <v>0.155076306395802</v>
+        <v>0.148617963107696</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05028296418882313</v>
+        <v>0.05714845558823604</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
